--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire\Documents\GitHub\Easyrun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115C487-1AEE-4B20-9CCA-12AEC6D912D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D377C3-8E12-428C-8507-B6DB3327C019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,12 @@
   <definedNames>
     <definedName name="PCB_Design" localSheetId="0">Presupuesto!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -490,9 +488,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -529,432 +524,15 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -974,6 +552,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0_-;&quot;-$ &quot;* #,##0_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1061,7 +645,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0_-;&quot;-$ &quot;* #,##0_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1126,7 +716,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0_-;&quot;-$ &quot;* #,##0_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1226,32 +822,163 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1587,6 +1314,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1594,19 +1330,299 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1690,31 +1706,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}" name="Tabla1" displayName="Tabla1" ref="A1:N49" totalsRowCount="1" headerRowDxfId="56" headerRowBorderDxfId="72" tableBorderDxfId="73" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}" name="Tabla1" displayName="Tabla1" ref="A1:N49" totalsRowCount="1" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:N48" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{09EA6D2C-DB7C-48C4-8112-CD2354802587}" name="Item" totalsRowLabel="Total" dataDxfId="70" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{09EA6D2C-DB7C-48C4-8112-CD2354802587}" name="Item" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="13">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{916D0C11-8D46-4708-9464-C1883775D97B}" name="Qty" dataDxfId="69" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{3CC0B726-8E5A-45AF-B30F-915A40038A99}" name="Reference(s)" dataDxfId="68" totalsRowDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{71D28F17-9B0C-4B12-BBD8-134D068D1527}" name="Voltage (V)" dataDxfId="67" totalsRowDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{0FE7B603-EB63-423E-814F-6BDBD82F6A1E}" name="Current (A)" dataDxfId="66" totalsRowDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{23A10E09-A22D-47A6-98A2-ACA9BED7784C}" name="Power (W)" dataDxfId="65" totalsRowDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{064C22A1-A3F7-4DE6-9BE0-3DEC2C5094BD}" name="Value" dataDxfId="64" totalsRowDxfId="49" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{63648DD0-97FE-49F0-A255-D44EF045A5B0}" name="Companie" dataDxfId="63" totalsRowDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{205FEE4C-4E4A-40BC-BF27-4467958273D8}" name="Unit Price" dataDxfId="62" totalsRowDxfId="47" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{916D0C11-8D46-4708-9464-C1883775D97B}" name="Qty" dataDxfId="42" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3CC0B726-8E5A-45AF-B30F-915A40038A99}" name="Reference(s)" dataDxfId="41" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{71D28F17-9B0C-4B12-BBD8-134D068D1527}" name="Voltage (V)" dataDxfId="40" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0FE7B603-EB63-423E-814F-6BDBD82F6A1E}" name="Current (A)" dataDxfId="39" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{23A10E09-A22D-47A6-98A2-ACA9BED7784C}" name="Power (W)" dataDxfId="38" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{064C22A1-A3F7-4DE6-9BE0-3DEC2C5094BD}" name="Value" dataDxfId="37" totalsRowDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{63648DD0-97FE-49F0-A255-D44EF045A5B0}" name="Companie" dataDxfId="36" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{205FEE4C-4E4A-40BC-BF27-4467958273D8}" name="Unit Price" dataDxfId="35" totalsRowDxfId="5" dataCellStyle="Moneda">
       <calculatedColumnFormula>G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A98F3AC0-34A6-4838-97F8-6B874B2A58E0}" name="Total Quantity" dataDxfId="61" totalsRowDxfId="46">
+    <tableColumn id="10" xr3:uid="{A98F3AC0-34A6-4838-97F8-6B874B2A58E0}" name="Total Quantity" dataDxfId="34" totalsRowDxfId="4">
       <calculatedColumnFormula>B2*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AADF54E6-ACF4-4695-8595-E8DB6930301C}" name=" We have" dataDxfId="60" totalsRowDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{263CFB65-2A5F-4DB1-8D86-9AA95B758F4E}" name="Condition" dataDxfId="59" totalsRowDxfId="44">
+    <tableColumn id="11" xr3:uid="{AADF54E6-ACF4-4695-8595-E8DB6930301C}" name=" We have" dataDxfId="33" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{263CFB65-2A5F-4DB1-8D86-9AA95B758F4E}" name="Condition" dataDxfId="32" totalsRowDxfId="2">
       <calculatedColumnFormula>J2-K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D2501AF7-85C4-44C8-B8E4-55AB5761E1EF}" name="Who?" dataDxfId="58" totalsRowDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{DA11BCD4-887F-4F45-AE21-7552B35AC6B7}" name="Total" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="42" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{D2501AF7-85C4-44C8-B8E4-55AB5761E1EF}" name="Who?" dataDxfId="31" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{DA11BCD4-887F-4F45-AE21-7552B35AC6B7}" name="Total" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>I2*J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2021,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2043,2529 +2059,2529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>3.3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.02</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>D2*E2</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>9000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I48" si="0">G2</f>
         <v>9000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J48" si="1">B2*2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
         <f t="shared" ref="L2:L48" si="2">J2-K2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <f t="shared" ref="N2:N48" si="3">I2*J2</f>
         <v>18000</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <f t="shared" ref="A3:A48" si="4">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3.3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.17</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>D3*E3</f>
         <v>0.56100000000000005</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>18000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5">
+      <c r="K3" s="2"/>
+      <c r="L3" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <f t="shared" si="3"/>
         <v>36000</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3.3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.06</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>D4*E4</f>
         <v>0.19799999999999998</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>45000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5">
+      <c r="K4" s="2"/>
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
         <v>37000</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>37000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="5">
+      <c r="K5" s="2"/>
+      <c r="L5" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <f t="shared" si="3"/>
         <v>74000</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
         <v>9900</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>9900</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5">
+      <c r="K6" s="2"/>
+      <c r="L6" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f t="shared" si="3"/>
         <v>19800</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
         <v>8800</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="5">
+      <c r="K7" s="2"/>
+      <c r="L7" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f t="shared" si="3"/>
         <v>17600</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f>D8*E8</f>
         <v>3.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>11000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5">
+      <c r="K8" s="2"/>
+      <c r="L8" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <f t="shared" si="3"/>
         <v>44000</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
         <v>11500</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5">
+      <c r="K9" s="2"/>
+      <c r="L9" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f t="shared" si="3"/>
         <v>46000</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5">
+      <c r="K10" s="2"/>
+      <c r="L10" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3.3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.03</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>D11*E11</f>
         <v>9.8999999999999991E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>15000</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5">
+      <c r="K11" s="2"/>
+      <c r="L11" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
         <v>214.23</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>214.23</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <f t="shared" si="3"/>
         <v>2999.22</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
         <v>200</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <f t="shared" si="3"/>
         <v>2800</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3">
         <v>119.05</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>119.05</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <f t="shared" si="3"/>
         <v>476.2</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3">
         <v>5000</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3">
         <v>996.63</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>996.63</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <f t="shared" si="3"/>
         <v>1993.26</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3">
         <v>484.33</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>484.33</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <f t="shared" si="3"/>
         <v>968.66</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3">
         <v>476</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <f t="shared" si="3"/>
         <v>2856</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3">
         <v>217.18</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>217.18</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <f t="shared" si="3"/>
         <v>868.72</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3">
         <v>597.38</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>597.38</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <f t="shared" si="3"/>
         <v>2389.52</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
         <v>250</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3">
         <v>476</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <f t="shared" si="3"/>
         <v>10472</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3">
         <v>238</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3">
         <v>238</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3">
         <v>2142</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="14">
         <f t="shared" si="3"/>
         <v>4284</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3">
         <v>1794</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>1794</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="14">
         <f t="shared" si="3"/>
         <v>21528</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
         <v>595</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="14">
         <f t="shared" si="3"/>
         <v>7140</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>2181</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>2181</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="14">
         <f t="shared" si="3"/>
         <v>4362</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="3">
         <v>307</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="14">
         <f t="shared" si="3"/>
         <v>1228</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3">
         <v>974</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>974</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <f t="shared" si="3"/>
         <v>3896</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3">
         <v>307</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="14">
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>6</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3">
         <v>221</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <f t="shared" si="3"/>
         <v>2652</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3">
         <v>238</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="14">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3">
         <v>7212</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>7212</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="K35" s="2">
+        <v>6</v>
+      </c>
+      <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="14">
         <f t="shared" si="3"/>
         <v>43272</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3">
         <v>174.93</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>174.93</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="14">
         <f t="shared" si="3"/>
         <v>699.72</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3">
         <v>290.36</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <f t="shared" si="0"/>
         <v>290.36</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <f t="shared" si="3"/>
         <v>580.72</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="3">
         <v>290</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="14">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="3">
         <v>290</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="14">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
         <v>290</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="14">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>10</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3">
         <v>48</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="14">
         <f t="shared" si="3"/>
         <v>960</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3">
         <v>119</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="14">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="3">
         <v>312.97000000000003</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <f t="shared" si="0"/>
         <v>312.97000000000003</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="14">
         <f t="shared" si="3"/>
         <v>625.94000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="3">
         <v>341.23</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <f t="shared" si="0"/>
         <v>341.23</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="14">
         <f t="shared" si="3"/>
         <v>682.46</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3">
         <v>2142</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <f t="shared" si="0"/>
         <v>2142</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="14">
         <f t="shared" si="3"/>
         <v>4284</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3">
         <v>3332</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <f t="shared" si="0"/>
         <v>3332</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="14">
         <f t="shared" si="3"/>
         <v>6664</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3">
         <v>3451</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <f t="shared" si="0"/>
         <v>3451</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="14">
         <f t="shared" si="3"/>
         <v>6902</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>1</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="21">
+      <c r="D48" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="20">
         <v>47600</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <f t="shared" si="0"/>
         <v>47600</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K48" s="20">
-        <v>0</v>
-      </c>
-      <c r="L48" s="20">
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="22">
         <f t="shared" si="3"/>
         <v>95200</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="24">
         <f>SUBTOTAL(109,Tabla1[Total])</f>
         <v>705360.41999999981</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" t="s">
         <v>73</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="10">
         <f>Tabla1[[#Totals],[Total]]/7</f>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="12" t="s">
+      <c r="H53" s="35"/>
+      <c r="I53" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="13">
+      <c r="H54" s="2"/>
+      <c r="I54" s="12">
         <f>$N$50</f>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="13">
+      <c r="H55" s="2"/>
+      <c r="I55" s="12">
         <f t="shared" ref="I55:I60" si="5">$N$50</f>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="13">
+      <c r="H56" s="2"/>
+      <c r="I56" s="12">
         <f t="shared" si="5"/>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="13">
+      <c r="H57" s="13"/>
+      <c r="I57" s="12">
         <f t="shared" si="5"/>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="13">
+      <c r="H58" s="2"/>
+      <c r="I58" s="12">
         <f t="shared" si="5"/>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="13">
+      <c r="H59" s="2"/>
+      <c r="I59" s="12">
         <f t="shared" si="5"/>
         <v>100765.77428571426</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="13">
+      <c r="H60" s="2"/>
+      <c r="I60" s="12">
         <f t="shared" si="5"/>
         <v>100765.77428571426</v>
       </c>
@@ -4601,10 +4617,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4635,10 +4651,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4669,10 +4685,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4703,10 +4719,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="20" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="21" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4737,10 +4753,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4771,10 +4787,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4805,10 +4821,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4839,10 +4855,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4873,10 +4889,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4907,10 +4923,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4941,10 +4957,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4975,10 +4991,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,10 +5025,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5039,860 +5055,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>11</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>7</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>214.23</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>214.23</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>14</v>
       </c>
-      <c r="H2" s="27">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
         <v>14</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="27">
         <v>2999.22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>12</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>200</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>200</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>14</v>
       </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29">
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
         <v>14</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>2800</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>14</v>
       </c>
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>119.05</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>119.05</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>4</v>
       </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
         <v>4</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <v>476.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>16</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>996.63</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>996.63</v>
       </c>
-      <c r="G5" s="29">
-        <v>2</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>2</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="G5" s="28">
+        <v>2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>1993.26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>17</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>484.33</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>484.33</v>
       </c>
-      <c r="G6" s="27">
-        <v>2</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="27" t="s">
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <v>968.66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>19</v>
       </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>217.18</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>217.18</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>4</v>
       </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
         <v>4</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>868.72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>20</v>
       </c>
-      <c r="B8" s="27">
-        <v>2</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>597.38</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>597.38</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>4</v>
       </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
         <v>4</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>2389.52</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>22</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>11</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>476</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>476</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>22</v>
       </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-      <c r="I9" s="29">
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
         <v>22</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>10472</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>26</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>1794</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>1794</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>12</v>
       </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
         <v>12</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>21528</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>27</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>595</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>595</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>12</v>
       </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
         <v>12</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>7140</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>28</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>2181</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>2181</v>
       </c>
-      <c r="G12" s="27">
-        <v>2</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <v>2</v>
-      </c>
-      <c r="J12" s="27" t="s">
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>4362</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>29</v>
       </c>
-      <c r="B13" s="29">
-        <v>2</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>307</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>307</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>4</v>
       </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
         <v>4</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>30</v>
       </c>
-      <c r="B14" s="27">
-        <v>2</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="26">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>974</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>974</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <v>4</v>
       </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
         <v>4</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>3896</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>31</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>3</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>307</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>307</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>6</v>
       </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="29">
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
         <v>6</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>1842</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>32</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>6</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>221</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>221</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>12</v>
       </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
         <v>12</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>2652</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>35</v>
       </c>
-      <c r="B17" s="29">
-        <v>2</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="28">
+        <v>2</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>174.93</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>174.93</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>4</v>
       </c>
-      <c r="H17" s="29">
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
         <v>4</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <v>699.72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>36</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>1</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>290.36</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>290.36</v>
       </c>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
-      <c r="J18" s="27" t="s">
+      <c r="G18" s="26">
+        <v>2</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>580.72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>37</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>1</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>290</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>290</v>
       </c>
-      <c r="G19" s="29">
-        <v>2</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-      <c r="I19" s="29">
-        <v>2</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="G19" s="28">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <v>2</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>38</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>290</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>290</v>
       </c>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="G20" s="26">
+        <v>2</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>2</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>39</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>1</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>290</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>290</v>
       </c>
-      <c r="G21" s="29">
-        <v>2</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="29">
-        <v>2</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="G21" s="28">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <v>2</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>41</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>1</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>119</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>119</v>
       </c>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
-      <c r="J22" s="27" t="s">
+      <c r="G22" s="26">
+        <v>2</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>2</v>
+      </c>
+      <c r="J22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="27">
         <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>42</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>1</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="29">
         <v>312.97000000000003</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>312.97000000000003</v>
       </c>
-      <c r="G23" s="29">
-        <v>2</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <v>2</v>
-      </c>
-      <c r="J23" s="29" t="s">
+      <c r="G23" s="28">
+        <v>2</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <v>2</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <v>625.94000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>43</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>1</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>341.23</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>341.23</v>
       </c>
-      <c r="G24" s="27">
-        <v>2</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>2</v>
-      </c>
-      <c r="J24" s="27" t="s">
+      <c r="G24" s="26">
+        <v>2</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>2</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <v>682.46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="33">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="32">
         <v>70182.420000000013</v>
       </c>
     </row>
@@ -5924,10 +5940,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5958,10 +5974,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5992,10 +6008,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6026,10 +6042,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6060,10 +6076,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6094,10 +6110,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6128,10 +6144,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6162,10 +6178,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire\Documents\GitHub\Easyrun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documents\KiCad\Easyrun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D377C3-8E12-428C-8507-B6DB3327C019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117A8C4A-E4C6-47ED-8101-9CB2A0F596B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
   <definedNames>
     <definedName name="PCB_Design" localSheetId="0">Presupuesto!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="79">
   <si>
     <t>Item</t>
   </si>
@@ -271,6 +273,9 @@
   </si>
   <si>
     <t>Sebastián</t>
+  </si>
+  <si>
+    <t>CP2102</t>
   </si>
 </sst>
 </file>
@@ -512,8 +517,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -527,9 +530,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="74">
@@ -822,163 +827,111 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0_-;&quot;-$ &quot;* #,##0_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1004,7 +957,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1017,60 +972,23 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1127,23 +1045,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1162,25 +1063,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0_-;&quot;-$ &quot;* #,##0_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1197,7 +1079,6 @@
         <vertical/>
         <horizontal/>
       </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1255,9 +1136,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1272,38 +1151,424 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1363,266 +1628,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1706,31 +1711,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}" name="Tabla1" displayName="Tabla1" ref="A1:N49" totalsRowCount="1" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
-  <autoFilter ref="A1:N48" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}" name="Tabla1" displayName="Tabla1" ref="A1:N50" totalsRowCount="1" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+  <autoFilter ref="A1:N49" xr:uid="{DADCE3C3-FDE5-4B79-9F5A-CABE7037490F}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{09EA6D2C-DB7C-48C4-8112-CD2354802587}" name="Item" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{09EA6D2C-DB7C-48C4-8112-CD2354802587}" name="Item" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{916D0C11-8D46-4708-9464-C1883775D97B}" name="Qty" dataDxfId="42" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3CC0B726-8E5A-45AF-B30F-915A40038A99}" name="Reference(s)" dataDxfId="41" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{71D28F17-9B0C-4B12-BBD8-134D068D1527}" name="Voltage (V)" dataDxfId="40" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0FE7B603-EB63-423E-814F-6BDBD82F6A1E}" name="Current (A)" dataDxfId="39" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{23A10E09-A22D-47A6-98A2-ACA9BED7784C}" name="Power (W)" dataDxfId="38" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{064C22A1-A3F7-4DE6-9BE0-3DEC2C5094BD}" name="Value" dataDxfId="37" totalsRowDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{63648DD0-97FE-49F0-A255-D44EF045A5B0}" name="Companie" dataDxfId="36" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{205FEE4C-4E4A-40BC-BF27-4467958273D8}" name="Unit Price" dataDxfId="35" totalsRowDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{916D0C11-8D46-4708-9464-C1883775D97B}" name="Qty" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3CC0B726-8E5A-45AF-B30F-915A40038A99}" name="Reference(s)" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{71D28F17-9B0C-4B12-BBD8-134D068D1527}" name="Voltage (V)" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0FE7B603-EB63-423E-814F-6BDBD82F6A1E}" name="Current (A)" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{23A10E09-A22D-47A6-98A2-ACA9BED7784C}" name="Power (W)" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{064C22A1-A3F7-4DE6-9BE0-3DEC2C5094BD}" name="Value" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{63648DD0-97FE-49F0-A255-D44EF045A5B0}" name="Companie" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{205FEE4C-4E4A-40BC-BF27-4467958273D8}" name="Unit Price" dataDxfId="19" totalsRowDxfId="5">
       <calculatedColumnFormula>G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A98F3AC0-34A6-4838-97F8-6B874B2A58E0}" name="Total Quantity" dataDxfId="34" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{A98F3AC0-34A6-4838-97F8-6B874B2A58E0}" name="Total Quantity" dataDxfId="18" totalsRowDxfId="4">
       <calculatedColumnFormula>B2*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AADF54E6-ACF4-4695-8595-E8DB6930301C}" name=" We have" dataDxfId="33" totalsRowDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{263CFB65-2A5F-4DB1-8D86-9AA95B758F4E}" name="Condition" dataDxfId="32" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{AADF54E6-ACF4-4695-8595-E8DB6930301C}" name=" We have" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{263CFB65-2A5F-4DB1-8D86-9AA95B758F4E}" name="Condition" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>J2-K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D2501AF7-85C4-44C8-B8E4-55AB5761E1EF}" name="Who?" dataDxfId="31" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{DA11BCD4-887F-4F45-AE21-7552B35AC6B7}" name="Total" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{D2501AF7-85C4-44C8-B8E4-55AB5761E1EF}" name="Who?" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{DA11BCD4-887F-4F45-AE21-7552B35AC6B7}" name="Total" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="0">
       <calculatedColumnFormula>I2*J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1739,7 +1744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2035,30 +2040,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="54.375" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
     <col min="4" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="17.625" customWidth="1"/>
+    <col min="11" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" customWidth="1"/>
+    <col min="16" max="16" width="17.58203125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="18" max="18" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2109,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L48" si="2">J2-K2</f>
+        <f t="shared" ref="L2:L49" si="2">J2-K2</f>
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -2155,9 +2160,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <f t="shared" ref="A3:A48" si="4">A2+1</f>
+        <f t="shared" ref="A3:A47" si="4">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -2205,7 +2210,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2255,7 +2260,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2304,7 +2309,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2353,7 +2358,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2402,7 +2407,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2452,7 +2457,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2501,7 +2506,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2547,11 +2552,11 @@
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2601,7 +2606,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2652,7 +2657,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2703,7 +2708,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2754,7 +2759,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -2805,7 +2810,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -2856,7 +2861,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -2907,7 +2912,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -2958,7 +2963,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -3009,7 +3014,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3060,7 +3065,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -3111,7 +3116,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -3162,7 +3167,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -3213,7 +3218,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -3264,7 +3269,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -3315,7 +3320,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -3366,7 +3371,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3417,7 +3422,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -3468,7 +3473,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -3519,7 +3524,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -3570,7 +3575,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -3621,7 +3626,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -3672,7 +3677,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -3723,7 +3728,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -3774,7 +3779,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -3825,7 +3830,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -3876,7 +3881,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -3927,7 +3932,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -3978,7 +3983,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -4029,7 +4034,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -4080,7 +4085,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -4131,7 +4136,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -4180,7 +4185,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -4229,7 +4234,7 @@
         <v>625.94000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -4278,7 +4283,7 @@
         <v>682.46</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4327,7 +4332,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -4376,7 +4381,7 @@
         <v>6664</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -4425,9 +4430,9 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
-        <f t="shared" si="4"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="19">
@@ -4474,121 +4479,169 @@
         <v>95200</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <f>A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="20">
+        <v>19180</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="3">
+        <f>G49</f>
+        <v>19180</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" s="14">
+        <f>I49*J49</f>
+        <v>19180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="24">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="35">
         <f>SUBTOTAL(109,Tabla1[Total])</f>
-        <v>705360.41999999981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" t="s">
+        <v>724540.41999999981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" t="s">
         <v>73</v>
       </c>
-      <c r="N50" s="10">
+      <c r="N51" s="10">
         <f>Tabla1[[#Totals],[Total]]/7</f>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G53" s="35" t="s">
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G54" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="11" t="s">
+      <c r="H54" s="33"/>
+      <c r="I54" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G54" s="2" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G55" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="12">
-        <f>$N$50</f>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G55" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="12">
-        <f t="shared" ref="I55:I60" si="5">$N$50</f>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <f>$N$51</f>
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="12">
-        <f t="shared" si="5"/>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I56:I61" si="5">$N$51</f>
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="12">
         <f t="shared" si="5"/>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G58" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="H58" s="13"/>
       <c r="I58" s="12">
         <f t="shared" si="5"/>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="12">
         <f t="shared" si="5"/>
-        <v>100765.77428571426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G60" s="2" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="12">
         <f t="shared" si="5"/>
-        <v>100765.77428571426</v>
+        <v>103505.77428571426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="12">
+        <f t="shared" si="5"/>
+        <v>103505.77428571426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L36">
     <cfRule type="colorScale" priority="2">
@@ -4617,10 +4670,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4651,10 +4704,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4685,10 +4738,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4719,10 +4772,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="20" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="21" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4753,10 +4806,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4787,10 +4840,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4821,10 +4874,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4855,10 +4908,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="41" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4889,10 +4942,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4923,10 +4976,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4957,10 +5010,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4991,14 +5044,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
+  <conditionalFormatting sqref="L48:L49">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5025,10 +5078,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="66" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,867 +5101,867 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="25">
         <v>214.23</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <v>214.23</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>14</v>
       </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
         <v>14</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="25">
         <v>2999.22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
         <v>12</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>200</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>200</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>14</v>
       </c>
-      <c r="H3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28">
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
         <v>14</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>2800</v>
       </c>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
         <v>14</v>
       </c>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>119.05</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>119.05</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>4</v>
       </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
         <v>4</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>476.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
         <v>16</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>996.63</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>996.63</v>
       </c>
-      <c r="G5" s="28">
-        <v>2</v>
-      </c>
-      <c r="H5" s="28">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
-        <v>2</v>
-      </c>
-      <c r="J5" s="28" t="s">
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>2</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>1993.26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
         <v>17</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>484.33</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <v>484.33</v>
       </c>
-      <c r="G6" s="26">
-        <v>2</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>2</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="G6" s="24">
+        <v>2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>2</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <v>968.66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
         <v>19</v>
       </c>
-      <c r="B7" s="28">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>217.18</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>217.18</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>4</v>
       </c>
-      <c r="H7" s="28">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
         <v>4</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>868.72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
         <v>20</v>
       </c>
-      <c r="B8" s="26">
-        <v>2</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>597.38</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <v>597.38</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>4</v>
       </c>
-      <c r="H8" s="26">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26">
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
         <v>4</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="25">
         <v>2389.52</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
         <v>22</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>11</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>476</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <v>476</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>22</v>
       </c>
-      <c r="H9" s="28">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
         <v>22</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>10472</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="24">
         <v>26</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>6</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>1794</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <v>1794</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>12</v>
       </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
         <v>12</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="25">
         <v>21528</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="26">
         <v>27</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>595</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>595</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>12</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
         <v>12</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>7140</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
         <v>28</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>2181</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <v>2181</v>
       </c>
-      <c r="G12" s="26">
-        <v>2</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26">
-        <v>2</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="G12" s="24">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>2</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="25">
         <v>4362</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="26">
         <v>29</v>
       </c>
-      <c r="B13" s="28">
-        <v>2</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="26">
+        <v>2</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>307</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <v>307</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>4</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
         <v>4</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <v>1228</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
         <v>30</v>
       </c>
-      <c r="B14" s="26">
-        <v>2</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>974</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>974</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>4</v>
       </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26">
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
         <v>4</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="25">
         <v>3896</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="26">
         <v>31</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>3</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <v>307</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <v>307</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>6</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
         <v>6</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>1842</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="24">
         <v>32</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>6</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>221</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <v>221</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <v>12</v>
       </c>
-      <c r="H16" s="26">
-        <v>0</v>
-      </c>
-      <c r="I16" s="26">
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
         <v>12</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="25">
         <v>2652</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="26">
         <v>35</v>
       </c>
-      <c r="B17" s="28">
-        <v>2</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="26">
+        <v>2</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <v>174.93</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <v>174.93</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>4</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
         <v>4</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <v>699.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="24">
         <v>36</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>290.36</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>290.36</v>
       </c>
-      <c r="G18" s="26">
-        <v>2</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26">
-        <v>2</v>
-      </c>
-      <c r="J18" s="26" t="s">
+      <c r="G18" s="24">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
+        <v>2</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="25">
         <v>580.72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="26">
         <v>37</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>290</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <v>290</v>
       </c>
-      <c r="G19" s="28">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <v>2</v>
-      </c>
-      <c r="J19" s="28" t="s">
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
         <v>38</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>1</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>290</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="25">
         <v>290</v>
       </c>
-      <c r="G20" s="26">
-        <v>2</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="26">
-        <v>2</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="G20" s="24">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>2</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="25">
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="26">
         <v>39</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>1</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>290</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <v>290</v>
       </c>
-      <c r="G21" s="28">
-        <v>2</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <v>2</v>
-      </c>
-      <c r="J21" s="28" t="s">
+      <c r="G21" s="26">
+        <v>2</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
         <v>41</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="25">
         <v>119</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="25">
         <v>119</v>
       </c>
-      <c r="G22" s="26">
-        <v>2</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0</v>
-      </c>
-      <c r="I22" s="26">
-        <v>2</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="G22" s="24">
+        <v>2</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>2</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="25">
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="26">
         <v>42</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <v>312.97000000000003</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <v>312.97000000000003</v>
       </c>
-      <c r="G23" s="28">
-        <v>2</v>
-      </c>
-      <c r="H23" s="28">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <v>2</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="G23" s="26">
+        <v>2</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <v>625.94000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
         <v>43</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>1</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>341.23</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="25">
         <v>341.23</v>
       </c>
-      <c r="G24" s="26">
-        <v>2</v>
-      </c>
-      <c r="H24" s="26">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
-        <v>2</v>
-      </c>
-      <c r="J24" s="26" t="s">
+      <c r="G24" s="24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="25">
         <v>682.46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="30">
         <v>70182.420000000013</v>
       </c>
     </row>
@@ -5940,10 +5993,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5974,10 +6027,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6008,10 +6061,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6042,10 +6095,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6076,10 +6129,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,10 +6163,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6144,10 +6197,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6178,10 +6231,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
